--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Dropbox\sfassnacht1\Software Engineering\attendin\"/>
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8265" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Class" sheetId="1" r:id="rId1"/>
-    <sheet name="Student" sheetId="2" r:id="rId2"/>
-    <sheet name="Roll" sheetId="3" r:id="rId3"/>
-    <sheet name="Professor" sheetId="4" r:id="rId4"/>
-    <sheet name="Course" sheetId="5" r:id="rId5"/>
+    <sheet name="Student" sheetId="2" r:id="rId1"/>
+    <sheet name="Professor" sheetId="4" r:id="rId2"/>
+    <sheet name="Course" sheetId="5" r:id="rId3"/>
+    <sheet name="Class" sheetId="1" r:id="rId4"/>
+    <sheet name="Roll" sheetId="3" r:id="rId5"/>
     <sheet name="Login" sheetId="6" r:id="rId6"/>
     <sheet name="Verify" sheetId="8" r:id="rId7"/>
-    <sheet name="Links" sheetId="7" r:id="rId8"/>
+    <sheet name="SetCourse" sheetId="9" r:id="rId8"/>
+    <sheet name="Links" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="48">
   <si>
     <t>https://stackoverflow.com/questions/22195065/how-to-send-a-json-object-using-html-form-data</t>
   </si>
@@ -72,9 +73,6 @@
     <t>coursename</t>
   </si>
   <si>
-    <t>profid</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -109,19 +107,94 @@
   </si>
   <si>
     <t>rollid</t>
+  </si>
+  <si>
+    <t>Table:</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>varchar(24)</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>logindate</t>
+  </si>
+  <si>
+    <t>classset</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>SetCourse</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>loginid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,8 +217,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +237,606 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7170" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7170"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Button 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,43 +1101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,67 +1117,155 @@
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"create table " &amp; B1 &amp; "("</f>
+        <v>create table Student(</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;" AUTO_INCREMENT PRIMARY KEY,"</f>
+        <v>tid integer AUTO_INCREMENT PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(D4 = "Y", "FOREIGN KEY(" &amp; A4 &amp; ") references " &amp; B4 &amp; "(tid), ", A4 &amp; " " &amp; B4 &amp; ",")</f>
+        <v>loginid varchar(15),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(D5 = "Y", "FOREIGN KEY(" &amp; A5 &amp; ") references " &amp; B5 &amp; "(tid), ", A5 &amp; " " &amp; B5 &amp; ",")</f>
+        <v>username varchar(40),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(D6 = "Y", "FOREIGN KEY(" &amp; A6 &amp; ") references " &amp; B6 &amp; "(tid), ", A6 &amp; " " &amp; B6 &amp; ",")</f>
+        <v>lastname varchar(40),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(D7 = "Y", "FOREIGN KEY(" &amp; A7 &amp; ") references " &amp; B7 &amp; "(tid), ", A7 &amp; " " &amp; B7 &amp; ",")</f>
+        <v>firstname varchar(40),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(D8 = "Y", "FOREIGN KEY(" &amp; A8 &amp; ") references " &amp; B8 &amp; "(tid), ", A8 &amp; " " &amp; B8 &amp; ",")</f>
+        <v>token varchar(40),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!create_table">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,37 +1278,154 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"create table " &amp; B1 &amp; "("</f>
+        <v>create table Professor(</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;" AUTO_INCREMENT PRIMARY KEY,"</f>
+        <v>tid integer AUTO_INCREMENT PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(D4 = "Y", "FOREIGN KEY(" &amp; A4 &amp; ") references " &amp; B4 &amp; "(tid), ", A4 &amp; " " &amp; B4 &amp; ",")</f>
+        <v>loginid varchar(15),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(D5 = "Y", "FOREIGN KEY(" &amp; A5 &amp; ") references " &amp; B5 &amp; "(tid), ", A5 &amp; " " &amp; B5 &amp; ",")</f>
+        <v>title varchar(24),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(D6 = "Y", "FOREIGN KEY(" &amp; A6 &amp; ") references " &amp; B6 &amp; "(tid), ", A6 &amp; " " &amp; B6 &amp; ",")</f>
+        <v>lastname varchar(40),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(D7 = "Y", "FOREIGN KEY(" &amp; A7 &amp; ") references " &amp; B7 &amp; "(tid), ", A7 &amp; " " &amp; B7 &amp; ",")</f>
+        <v>firstname varchar(40),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(D8 = "Y", "FOREIGN KEY(" &amp; A8 &amp; ") references " &amp; B8 &amp; "(tid), ", A8 &amp; " " &amp; B8 &amp; ",")</f>
+        <v>token varchar(40),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5121" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!create_table">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,32 +1435,434 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"create table " &amp; B1 &amp; "("</f>
+        <v>create table Course(</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;" AUTO_INCREMENT PRIMARY KEY,"</f>
+        <v>tid integer AUTO_INCREMENT PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(D4 = "Y", "FOREIGN KEY(" &amp; A4 &amp; ") references " &amp; B4 &amp; "(tid), ", A4 &amp; " " &amp; B4 &amp; ",")</f>
+        <v>courseid varchar(40),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(D5 = "Y", "FOREIGN KEY(" &amp; A5 &amp; ") references " &amp; B5 &amp; "(tid), ", A5 &amp; " " &amp; B5 &amp; ",")</f>
+        <v>coursename varchar(40),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6145" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!create_table">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"create table " &amp; B1 &amp; "("</f>
+        <v>create table Class(</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;" AUTO_INCREMENT PRIMARY KEY,"</f>
+        <v>tid integer AUTO_INCREMENT PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(D4 = "Y", "FOREIGN KEY(" &amp; A4 &amp; ") references " &amp; B4 &amp; "(tid), ", A4 &amp; " " &amp; B4 &amp; ",")</f>
+        <v>courseid integer,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(D5 = "Y", "FOREIGN KEY(" &amp; A5 &amp; ") references " &amp; B5 &amp; "(tid), ", A5 &amp; " " &amp; B5 &amp; ",")</f>
+        <v>professorid integer,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(D6 = "Y", "FOREIGN KEY(" &amp; A6 &amp; ") references " &amp; B6 &amp; "(tid), ", A6 &amp; " " &amp; B6 &amp; ",")</f>
+        <v>section integer,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(D7 = "Y", "FOREIGN KEY(" &amp; A7 &amp; ") references " &amp; B7 &amp; "(tid), ", A7 &amp; " " &amp; B7 &amp; ",")</f>
+        <v xml:space="preserve">FOREIGN KEY(professorid) references Professor(tid), </v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(D8 = "Y", "FOREIGN KEY(" &amp; A8 &amp; ") references " &amp; B8 &amp; "(tid), ", A8 &amp; " " &amp; B8 &amp; ",")</f>
+        <v xml:space="preserve">FOREIGN KEY(courseid) references Course(tid), </v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!create_table">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"create table " &amp; B1 &amp; "("</f>
+        <v>create table Roll(</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;" AUTO_INCREMENT PRIMARY KEY,"</f>
+        <v>tid integer AUTO_INCREMENT PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(D4 = "Y", "FOREIGN KEY(" &amp; A4 &amp; ") references " &amp; B4 &amp; "(tid), ", A4 &amp; " " &amp; B4 &amp; ",")</f>
+        <v>classid integer,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(D5 = "Y", "FOREIGN KEY(" &amp; A5 &amp; ") references " &amp; B5 &amp; "(tid), ", A5 &amp; " " &amp; B5 &amp; ",")</f>
+        <v>studentid integer,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(D6 = "Y", "FOREIGN KEY(" &amp; A6 &amp; ") references " &amp; B6 &amp; "(tid), ", A6 &amp; " " &amp; B6 &amp; ",")</f>
+        <v xml:space="preserve">FOREIGN KEY(classid) references Class(tid), </v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(D7 = "Y", "FOREIGN KEY(" &amp; A7 &amp; ") references " &amp; B7 &amp; "(tid), ", A7 &amp; " " &amp; B7 &amp; ",")</f>
+        <v xml:space="preserve">FOREIGN KEY(studentid) references Student(tid), </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!create_table">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -619,79 +1871,535 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"create table " &amp; B1 &amp; "("</f>
+        <v>create table Login(</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;" AUTO_INCREMENT PRIMARY KEY,"</f>
+        <v>tid integer AUTO_INCREMENT PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F11" si="0">IF(D4 = "Y", "FOREIGN KEY(" &amp; A4 &amp; ") references " &amp; B4 &amp; "(tid), ", A4 &amp; " " &amp; B4 &amp; ",")</f>
+        <v>rollid integer,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>ipaddress varchar(24),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>latitude float,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>longitude float,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>verifycode varchar(40),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>logindate datetime,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>result integer,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>token varchar(40),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(D12 = "Y", "FOREIGN KEY(" &amp; A12 &amp; ") references " &amp; B12 &amp; "(tid),", A12 &amp; " " &amp; B12 &amp; ",")</f>
+        <v>FOREIGN KEY(rollid) references Roll(tid),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId3" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!create_table">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"create table " &amp; B1 &amp; "("</f>
+        <v>create table Verify(</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;" AUTO_INCREMENT PRIMARY KEY,"</f>
+        <v>tid integer AUTO_INCREMENT PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(D4 = "Y", "FOREIGN KEY(" &amp; A4 &amp; ") references " &amp; B4 &amp; "(tid), ", A4 &amp; " " &amp; B4 &amp; ",")</f>
+        <v>classid integer,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(D5 = "Y", "FOREIGN KEY(" &amp; A5 &amp; ") references " &amp; B5 &amp; "(tid), ", A5 &amp; " " &amp; B5 &amp; ",")</f>
+        <v>verifycode varchar(40),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F6" t="str">
+        <f>IF(D6 = "Y", "FOREIGN KEY(" &amp; A6 &amp; ") references " &amp; B6 &amp; "(tid), ", A6 &amp; " " &amp; B6 &amp; ",")</f>
+        <v>datetimeset datetime,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(D7 = "Y", "FOREIGN KEY(" &amp; A7 &amp; ") references " &amp; B7 &amp; "(tid), ", A7 &amp; " " &amp; B7 &amp; ",")</f>
+        <v>token varchar(40),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(D8 = "Y", "FOREIGN KEY(" &amp; A8 &amp; ") references " &amp; B8 &amp; "(tid), ", A8 &amp; " " &amp; B8 &amp; ",")</f>
+        <v xml:space="preserve">FOREIGN KEY(classid) references Class(tid), </v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7170" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!create_table">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"create table " &amp; B1 &amp; "("</f>
+        <v>create table SetCourse(</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;" AUTO_INCREMENT PRIMARY KEY,"</f>
+        <v>tid integer AUTO_INCREMENT PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F9" si="0">IF(D4 = "Y", "FOREIGN KEY(" &amp; A4 &amp; ") references " &amp; B4 &amp; "(tid), ", A4 &amp; " " &amp; B4 &amp; ",")</f>
+        <v>classid integer,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>professorid integer,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>classset datetime,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>verifycode varchar(40),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">FOREIGN KEY(classid) references Class(tid), </v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">FOREIGN KEY(professorid) references Professor(tid), </v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9217" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!create_table">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
